--- a/data_notes.xlsx
+++ b/data_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyburnett/Library/Mobile Documents/com~apple~CloudDocs/Desktop/X_12.18.2024/Education/Graduate/USF Grad/Classes/SP25/ISM6137_StatsDM/GRP_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12B8F479-C071-8D4A-9D72-01CBBECB2EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D432CF73-4A16-224C-BA9F-643E2D6DC8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37820" yWindow="500" windowWidth="30100" windowHeight="26800" activeTab="1" xr2:uid="{83C755BF-01C1-854F-B6A1-7D7D9B1DBE15}"/>
+    <workbookView xWindow="32420" yWindow="500" windowWidth="34040" windowHeight="26800" activeTab="1" xr2:uid="{83C755BF-01C1-854F-B6A1-7D7D9B1DBE15}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="1" r:id="rId1"/>
@@ -1229,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06E7997-C01C-844E-ADAE-8DBBDA6C4E52}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,6 +1241,7 @@
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.83203125" style="29" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="22"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.1640625" bestFit="1" customWidth="1"/>
@@ -2190,14 +2191,12 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C30" s="37"/>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="37"/>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="37"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H38" s="23"/>
@@ -2212,17 +2211,11 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H43" s="23"/>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H44" s="24"/>
+      <c r="H42" s="24"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L54">
-    <sortCondition ref="J1:J54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L52">
+    <sortCondition ref="J1:J52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_notes.xlsx
+++ b/data_notes.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyburnett/Library/Mobile Documents/com~apple~CloudDocs/Desktop/X_12.18.2024/Education/Graduate/USF Grad/Classes/SP25/ISM6137_StatsDM/GRP_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D432CF73-4A16-224C-BA9F-643E2D6DC8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26218FC-C28B-D347-8450-F2A9A1C1C9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32420" yWindow="500" windowWidth="34040" windowHeight="26800" activeTab="1" xr2:uid="{83C755BF-01C1-854F-B6A1-7D7D9B1DBE15}"/>
+    <workbookView xWindow="10220" yWindow="520" windowWidth="41040" windowHeight="26800" activeTab="1" xr2:uid="{83C755BF-01C1-854F-B6A1-7D7D9B1DBE15}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="updated_dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,8 +36,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>James Burnett</author>
+  </authors>
+  <commentList>
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{CDC6BBA3-3737-3D45-A152-B53045FC89E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>James Burnett:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dropped product_size from df_prod_cln, but df_products is still active</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="124">
   <si>
     <t>stores</t>
   </si>
@@ -156,12 +199,6 @@
     <t>TPR_ONLY</t>
   </si>
   <si>
-    <t>VARIABLE NAME</t>
-  </si>
-  <si>
-    <t>TABLE</t>
-  </si>
-  <si>
     <t>base price of item</t>
   </si>
   <si>
@@ -192,15 +229,9 @@
     <t>week ending date</t>
   </si>
   <si>
-    <t>transactions, products</t>
-  </si>
-  <si>
     <t>Universal Product Code: product specific identifier</t>
   </si>
   <si>
-    <t>transactions, stores</t>
-  </si>
-  <si>
     <t>store number</t>
   </si>
   <si>
@@ -246,12 +277,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>Type_1</t>
-  </si>
-  <si>
-    <t>type_2</t>
-  </si>
-  <si>
     <t>base_price</t>
   </si>
   <si>
@@ -318,21 +343,12 @@
     <t>object</t>
   </si>
   <si>
-    <t>table_name</t>
-  </si>
-  <si>
     <t>df_1</t>
   </si>
   <si>
     <t>df_2</t>
   </si>
   <si>
-    <t>variable_1</t>
-  </si>
-  <si>
-    <t>variable_2</t>
-  </si>
-  <si>
     <t>df_products</t>
   </si>
   <si>
@@ -345,9 +361,6 @@
     <t>df_stores</t>
   </si>
   <si>
-    <t>key_type</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
@@ -360,35 +373,92 @@
     <t>store_id</t>
   </si>
   <si>
-    <t>int64</t>
-  </si>
-  <si>
     <t>store_name</t>
   </si>
   <si>
-    <t>float64</t>
-  </si>
-  <si>
     <t>store name</t>
   </si>
   <si>
     <t>Retailer's designated store appeal (not in data source, only Glossary)</t>
   </si>
   <si>
-    <t>datetime64</t>
-  </si>
-  <si>
-    <t>From:</t>
-  </si>
-  <si>
-    <t>Glossary</t>
+    <t>Original Variable</t>
+  </si>
+  <si>
+    <t>Variable Renamed To:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> products</t>
+  </si>
+  <si>
+    <t>Key Type:</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>size_value</t>
+  </si>
+  <si>
+    <t>size_unit</t>
+  </si>
+  <si>
+    <t>size_in_ml</t>
+  </si>
+  <si>
+    <t>dtype_2</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>unnamed: 9</t>
+  </si>
+  <si>
+    <t>unnamed: 10</t>
+  </si>
+  <si>
+    <t>*dropped</t>
+  </si>
+  <si>
+    <t>dtype_1</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Dropped</t>
+  </si>
+  <si>
+    <t>Numerical value of size as it originally appearss</t>
+  </si>
+  <si>
+    <t>Size unit as it originally appears</t>
+  </si>
+  <si>
+    <t>Size unit converted to numerical ML value</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -416,11 +486,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FF002060"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -475,25 +654,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D5B2"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,9 +757,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -593,7 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -643,34 +820,95 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E6EF73AD-7C1F-5B47-B29F-BBD2524AB29E}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1224,999 +1462,1126 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06E7997-C01C-844E-ADAE-8DBBDA6C4E52}">
-  <dimension ref="A1:L42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06E7997-C01C-844E-ADAE-8DBBDA6C4E52}">
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.83203125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="22"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="99.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="21"/>
+    <col min="2" max="2" width="16.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.33203125" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="E12" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="61"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="21" t="s">
+      <c r="E13" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="62"/>
+    </row>
+    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E19" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E20" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F25" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="H1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="J25" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="K1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="21" t="s">
+      <c r="F26" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" s="59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="31" t="s">
+      <c r="E33" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" s="59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="31"/>
-      <c r="L4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="29"/>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="30" t="s">
+      <c r="D34" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="33"/>
-      <c r="L9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="33"/>
-      <c r="L10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="33"/>
-      <c r="L11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="33"/>
-      <c r="L12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="33"/>
-      <c r="L13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="33"/>
-      <c r="L14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="E34" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="33"/>
-      <c r="L15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="37"/>
-      <c r="D16" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="33"/>
-      <c r="L16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="37"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" t="str">
-        <f>D18</f>
-        <v>float64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="35"/>
-      <c r="L18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" ref="E19:E29" si="0">D19</f>
-        <v>int64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="35"/>
-      <c r="L19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>int64</v>
-      </c>
-      <c r="F20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="35"/>
-      <c r="L20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>int64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="35"/>
-      <c r="L21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>float64</v>
-      </c>
-      <c r="F22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="35"/>
-      <c r="L22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>float64</v>
-      </c>
-      <c r="F23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="35"/>
-      <c r="L23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>int64</v>
-      </c>
-      <c r="F24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="35"/>
-      <c r="L24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>int64</v>
-      </c>
-      <c r="F25" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="35"/>
-      <c r="L25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>int64</v>
-      </c>
-      <c r="F26" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="35"/>
-      <c r="L26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>datetime64</v>
-      </c>
-      <c r="F27" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="35"/>
-      <c r="L27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>int64</v>
-      </c>
-      <c r="F28" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>int64</v>
-      </c>
-      <c r="F29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="L29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="37"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H36" s="23"/>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H37" s="23"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H38" s="23"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H42" s="24"/>
+      <c r="I34" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" s="64" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L52">
-    <sortCondition ref="J1:J52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E25">
+    <sortCondition ref="C2:C25"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="A2:J34">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A2="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>